--- a/Assets/Resources/Jsons/ClearRwrd.xlsx
+++ b/Assets/Resources/Jsons/ClearRwrd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\Desktop\Blossom-Company\Assets\Resources\Jsons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sean6\Desktop\Data\Game\Blossom_Company\Assets\Resources\Jsons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8CEEB8A-2F90-43AF-9A79-C251E0E098C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E44841-1805-4CEC-91CF-47230E20A34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2508" windowWidth="17280" windowHeight="8880" xr2:uid="{B8AABF23-904A-471A-8432-4EF5B85234A0}"/>
+    <workbookView xWindow="3972" yWindow="2304" windowWidth="19068" windowHeight="8880" xr2:uid="{B8AABF23-904A-471A-8432-4EF5B85234A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayRwrd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearRwrd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,20 +411,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F17078-DD1D-4D33-A9BE-8441CBBF8D59}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
